--- a/REGULAR/FLAVIER, ADORACION.xlsx
+++ b/REGULAR/FLAVIER, ADORACION.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE46A2-0D53-476E-8C4E-8E28C762AE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,12 +25,12 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="566">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1719,19 +1725,22 @@
   </si>
   <si>
     <t>CL ( 11-0-00)</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2123,15 +2132,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,18 +2142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2226,7 +2214,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2243,7 +2231,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2258,7 +2246,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2300,7 +2288,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2360,7 +2348,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2373,7 +2361,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2388,7 +2376,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2406,7 +2394,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2423,7 +2411,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2442,7 +2430,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2459,7 +2447,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2475,7 +2463,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2492,7 +2480,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2511,7 +2499,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2528,7 +2516,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2544,7 +2532,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2601,7 +2589,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2615,6 +2603,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2638,7 +2634,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,7 +2677,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2741,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2801,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2867,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2930,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3028,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3087,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3152,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3195,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3270,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3456,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,7 +3522,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3580,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3650,7 +3646,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3702,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3777,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3820,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3886,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3946,7 +3942,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4044,7 +4040,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4107,7 +4103,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4152,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4173,38 +4169,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K648" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAY"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAY"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4213,14 +4209,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4517,14 +4513,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4534,7 +4530,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4542,19 +4538,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K647"/>
+  <dimension ref="A2:K648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane ySplit="1440" topLeftCell="A631" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="B637" sqref="B637"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane ySplit="2136" topLeftCell="A616" activePane="bottomLeft"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection pane="bottomLeft" activeCell="D623" sqref="D623"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -4569,64 +4565,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="70"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4634,7 +4630,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4647,24 +4643,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4699,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4707,8 +4703,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-4.9690000000001078</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>3.7809999999998922</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4717,13 +4713,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>165.45799999999997</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>174.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>126</v>
       </c>
@@ -4741,7 +4737,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34582</v>
       </c>
@@ -4761,7 +4757,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>34608</v>
       </c>
@@ -4781,7 +4777,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>34639</v>
@@ -4802,7 +4798,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>34669</v>
@@ -4823,7 +4819,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>127</v>
       </c>
@@ -4841,8 +4837,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A16" s="51">
+    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>34700</v>
       </c>
       <c r="B16" s="50"/>
@@ -4861,8 +4857,8 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="51">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <f>EDATE(A16,1)</f>
         <v>34731</v>
       </c>
@@ -4882,8 +4878,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="51">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <f t="shared" ref="A18:A26" si="0">EDATE(A17,1)</f>
         <v>34759</v>
       </c>
@@ -4903,8 +4899,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="51">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>34790</v>
       </c>
@@ -4924,9 +4920,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C20" s="13"/>
@@ -4946,8 +4942,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
       </c>
@@ -4968,8 +4964,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="51">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <f>EDATE(A19,1)</f>
         <v>34820</v>
       </c>
@@ -4989,8 +4985,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="51">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <f>EDATE(A22,1)</f>
         <v>34851</v>
       </c>
@@ -5016,8 +5012,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="51">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <f>EDATE(A23,1)</f>
         <v>34881</v>
       </c>
@@ -5039,12 +5035,12 @@
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="51">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <f>EDATE(A24,1)</f>
         <v>34912</v>
       </c>
@@ -5064,12 +5060,12 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="51">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>34943</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="13">
@@ -5091,12 +5087,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="51">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>34973</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C27" s="13">
@@ -5118,12 +5114,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="51">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
         <f>EDATE(A27,1)</f>
         <v>35004</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="13">
@@ -5145,8 +5141,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="51"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>170</v>
       </c>
@@ -5167,8 +5163,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="51"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>139</v>
       </c>
@@ -5183,12 +5179,12 @@
       <c r="H30" s="39"/>
       <c r="I30" s="13"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="52" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="51">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
         <f>EDATE(A28,1)</f>
         <v>35034</v>
       </c>
@@ -5214,7 +5210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>130</v>
       </c>
@@ -5232,11 +5228,11 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="51">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>35065</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="13">
@@ -5258,7 +5254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f>EDATE(A33,1)</f>
         <v>35096</v>
@@ -5279,7 +5275,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>117</v>
@@ -5301,7 +5297,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>35125</v>
@@ -5328,12 +5324,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>35156</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C37" s="13">
@@ -5355,7 +5351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A37,1)</f>
         <v>35186</v>
@@ -5382,7 +5378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>35217</v>
@@ -5405,9 +5401,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="13">
@@ -5429,7 +5425,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>35247</v>
@@ -5450,12 +5446,12 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" ref="A42" si="1">EDATE(A41,1)</f>
         <v>35278</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="13">
@@ -5477,12 +5473,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35309</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="13">
@@ -5504,7 +5500,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>35339</v>
@@ -5531,7 +5527,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A44,1)</f>
         <v>35370</v>
@@ -5558,7 +5554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35400</v>
@@ -5583,7 +5579,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>132</v>
       </c>
@@ -5601,11 +5597,11 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>35431</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="13">
@@ -5625,12 +5621,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A48,1)</f>
         <v>35462</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="13">
@@ -5652,7 +5648,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>109</v>
@@ -5674,7 +5670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f>EDATE(A49,1)</f>
         <v>35490</v>
@@ -5695,12 +5691,12 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>35521</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="13">
@@ -5720,7 +5716,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A52,1)</f>
         <v>35551</v>
@@ -5741,7 +5737,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" ref="A54:A59" si="2">EDATE(A53,1)</f>
         <v>35582</v>
@@ -5762,12 +5758,12 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>35612</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C55" s="13">
@@ -5787,7 +5783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>46</v>
@@ -5809,12 +5805,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35643</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C57" s="13">
@@ -5836,7 +5832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35674</v>
@@ -5857,7 +5853,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>35704</v>
@@ -5884,7 +5880,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A59,1)</f>
         <v>35735</v>
@@ -5911,7 +5907,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A60,1)</f>
         <v>35765</v>
@@ -5938,7 +5934,7 @@
         <v>35685</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>146</v>
@@ -5958,7 +5954,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>147</v>
       </c>
@@ -5976,7 +5972,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>35796</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>168</v>
@@ -6024,7 +6020,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>148</v>
@@ -6044,7 +6040,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>35827</v>
@@ -6071,7 +6067,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>152</v>
@@ -6091,7 +6087,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>35855</v>
@@ -6112,7 +6108,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" ref="A70" si="3">EDATE(A69,1)</f>
         <v>35886</v>
@@ -6139,7 +6135,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>117</v>
@@ -6161,7 +6157,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>155</v>
@@ -6181,7 +6177,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A70,1)</f>
         <v>35916</v>
@@ -6208,7 +6204,7 @@
         <v>35890</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>158</v>
@@ -6228,7 +6224,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>35947</v>
@@ -6253,7 +6249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>160</v>
@@ -6273,7 +6269,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="48"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>35977</v>
@@ -6300,7 +6296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>36008</v>
@@ -6327,7 +6323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>117</v>
@@ -6349,7 +6345,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>163</v>
@@ -6369,7 +6365,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A78,1)</f>
         <v>36039</v>
@@ -6396,9 +6392,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C82" s="13"/>
@@ -6416,7 +6412,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>36069</v>
@@ -6443,7 +6439,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>169</v>
@@ -6463,7 +6459,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>36100</v>
@@ -6490,7 +6486,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>172</v>
@@ -6510,11 +6506,11 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>36130</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C87" s="13">
@@ -6536,7 +6532,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>187</v>
@@ -6556,7 +6552,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>190</v>
@@ -6576,7 +6572,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>175</v>
       </c>
@@ -6594,11 +6590,11 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="51">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
         <v>36161</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C91" s="13">
@@ -6620,9 +6616,9 @@
         <v>36495</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="51"/>
-      <c r="B92" s="52" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="23"/>
+      <c r="B92" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C92" s="13"/>
@@ -6640,9 +6636,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="51"/>
-      <c r="B93" s="52" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="23"/>
+      <c r="B93" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C93" s="13"/>
@@ -6662,8 +6658,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="51"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>216</v>
       </c>
@@ -6682,12 +6678,12 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="53">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
         <f>EDATE(A91,1)</f>
         <v>36192</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="13">
@@ -6709,8 +6705,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="53"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>218</v>
       </c>
@@ -6729,12 +6725,12 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="53">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36220</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C97" s="13">
@@ -6756,9 +6752,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="53"/>
-      <c r="B98" s="52" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40"/>
+      <c r="B98" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C98" s="13"/>
@@ -6778,9 +6774,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="53"/>
-      <c r="B99" s="52" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C99" s="13"/>
@@ -6800,9 +6796,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="53"/>
-      <c r="B100" s="52" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
+      <c r="B100" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C100" s="13"/>
@@ -6820,8 +6816,8 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="53">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
         <f t="shared" ref="A101" si="4">EDATE(A97,1)</f>
         <v>36251</v>
       </c>
@@ -6843,9 +6839,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="53"/>
-      <c r="B102" s="52" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C102" s="13"/>
@@ -6865,9 +6861,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="53"/>
-      <c r="B103" s="52" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C103" s="13"/>
@@ -6887,9 +6883,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="53"/>
-      <c r="B104" s="52" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="13">
@@ -6909,7 +6905,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36281</v>
       </c>
@@ -6933,9 +6929,9 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C106" s="13"/>
@@ -6955,7 +6951,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>176</v>
@@ -6977,12 +6973,12 @@
       <c r="J107" s="11"/>
       <c r="K107" s="48"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f>EDATE(A105,1)</f>
         <v>36312</v>
       </c>
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C108" s="13"/>
@@ -7002,7 +6998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>117</v>
@@ -7024,9 +7020,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C110" s="13"/>
@@ -7046,9 +7042,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C111" s="13">
@@ -7068,12 +7064,12 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A108,1)</f>
         <v>36342</v>
       </c>
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C112" s="13"/>
@@ -7093,9 +7089,9 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="20" t="s">
         <v>183</v>
       </c>
       <c r="C113" s="13"/>
@@ -7115,9 +7111,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
-      <c r="B114" s="52" t="s">
+      <c r="B114" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C114" s="13">
@@ -7137,7 +7133,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="48"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36373</v>
@@ -7159,9 +7155,9 @@
         <v>36227</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C116" s="13"/>
@@ -7181,9 +7177,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C117" s="13"/>
@@ -7203,9 +7199,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C118" s="13">
@@ -7225,7 +7221,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36404</v>
@@ -7246,7 +7242,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f>EDATE(A119,1)</f>
         <v>36434</v>
@@ -7271,9 +7267,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="20" t="s">
         <v>230</v>
       </c>
       <c r="C121" s="13"/>
@@ -7293,9 +7289,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
-      <c r="B122" s="52" t="s">
+      <c r="B122" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C122" s="13">
@@ -7315,7 +7311,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A120,1)</f>
         <v>36465</v>
@@ -7340,9 +7336,9 @@
         <v>36505</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
-      <c r="B124" s="52" t="s">
+      <c r="B124" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C124" s="13"/>
@@ -7362,9 +7358,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
-      <c r="B125" s="52" t="s">
+      <c r="B125" s="20" t="s">
         <v>236</v>
       </c>
       <c r="C125" s="13">
@@ -7384,12 +7380,12 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" ref="A126" si="5">EDATE(A123,1)</f>
         <v>36495</v>
       </c>
-      <c r="B126" s="52" t="s">
+      <c r="B126" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C126" s="13"/>
@@ -7409,9 +7405,9 @@
         <v>36323</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
-      <c r="B127" s="52" t="s">
+      <c r="B127" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C127" s="13"/>
@@ -7431,9 +7427,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C128" s="13"/>
@@ -7453,9 +7449,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
-      <c r="B129" s="52" t="s">
+      <c r="B129" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C129" s="13">
@@ -7477,9 +7473,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
-      <c r="B130" s="52" t="s">
+      <c r="B130" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C130" s="13"/>
@@ -7499,9 +7495,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="20" t="s">
         <v>241</v>
       </c>
       <c r="C131" s="13"/>
@@ -7519,7 +7515,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>242</v>
       </c>
@@ -7537,11 +7533,11 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>36526</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="B133" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C133" s="13"/>
@@ -7561,9 +7557,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C134" s="13"/>
@@ -7583,9 +7579,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
-      <c r="B135" s="52" t="s">
+      <c r="B135" s="20" t="s">
         <v>246</v>
       </c>
       <c r="C135" s="13"/>
@@ -7603,9 +7599,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
-      <c r="B136" s="52" t="s">
+      <c r="B136" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C136" s="13">
@@ -7627,9 +7623,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="20" t="s">
         <v>249</v>
       </c>
       <c r="C137" s="13"/>
@@ -7647,12 +7643,12 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A133,1)</f>
         <v>36557</v>
       </c>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C138" s="13"/>
@@ -7669,9 +7665,9 @@
         <v>36587</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
-      <c r="B139" s="52" t="s">
+      <c r="B139" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C139" s="13"/>
@@ -7691,9 +7687,9 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
-      <c r="B140" s="52" t="s">
+      <c r="B140" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C140" s="13"/>
@@ -7713,7 +7709,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>251</v>
@@ -7735,12 +7731,12 @@
       <c r="J141" s="11"/>
       <c r="K141" s="48"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A138,1)</f>
         <v>36586</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B142" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C142" s="13"/>
@@ -7760,9 +7756,9 @@
         <v>36619</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
-      <c r="B143" s="52" t="s">
+      <c r="B143" s="20" t="s">
         <v>252</v>
       </c>
       <c r="C143" s="13">
@@ -7782,12 +7778,12 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>36617</v>
       </c>
-      <c r="B144" s="52" t="s">
+      <c r="B144" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C144" s="13"/>
@@ -7807,7 +7803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>58</v>
@@ -7827,9 +7823,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
-      <c r="B146" s="52" t="s">
+      <c r="B146" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C146" s="13"/>
@@ -7849,9 +7845,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
-      <c r="B147" s="52" t="s">
+      <c r="B147" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C147" s="13"/>
@@ -7871,9 +7867,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
-      <c r="B148" s="52" t="s">
+      <c r="B148" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C148" s="13">
@@ -7893,12 +7889,12 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f>EDATE(A144,1)</f>
         <v>36647</v>
       </c>
-      <c r="B149" s="52" t="s">
+      <c r="B149" s="20" t="s">
         <v>257</v>
       </c>
       <c r="C149" s="13"/>
@@ -7918,9 +7914,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C150" s="13"/>
@@ -7940,9 +7936,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
-      <c r="B151" s="52" t="s">
+      <c r="B151" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C151" s="13">
@@ -7962,12 +7958,12 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A149,1)</f>
         <v>36678</v>
       </c>
-      <c r="B152" s="52" t="s">
+      <c r="B152" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C152" s="13"/>
@@ -7987,9 +7983,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
-      <c r="B153" s="52" t="s">
+      <c r="B153" s="20" t="s">
         <v>261</v>
       </c>
       <c r="C153" s="13">
@@ -8009,12 +8005,12 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>36708</v>
       </c>
-      <c r="B154" s="52" t="s">
+      <c r="B154" s="20" t="s">
         <v>262</v>
       </c>
       <c r="C154" s="13">
@@ -8034,12 +8030,12 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A154,1)</f>
         <v>36739</v>
       </c>
-      <c r="B155" s="52" t="s">
+      <c r="B155" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C155" s="13"/>
@@ -8059,9 +8055,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
-      <c r="B156" s="52" t="s">
+      <c r="B156" s="20" t="s">
         <v>264</v>
       </c>
       <c r="C156" s="13">
@@ -8081,12 +8077,12 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A155,1)</f>
         <v>36770</v>
       </c>
-      <c r="B157" s="52" t="s">
+      <c r="B157" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C157" s="13">
@@ -8106,12 +8102,12 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" ref="A158:A159" si="6">EDATE(A157,1)</f>
         <v>36800</v>
       </c>
-      <c r="B158" s="52" t="s">
+      <c r="B158" s="20" t="s">
         <v>266</v>
       </c>
       <c r="C158" s="13">
@@ -8131,12 +8127,12 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="6"/>
         <v>36831</v>
       </c>
-      <c r="B159" s="52" t="s">
+      <c r="B159" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C159" s="13"/>
@@ -8153,9 +8149,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
-      <c r="B160" s="52"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="13">
         <v>1.25</v>
       </c>
@@ -8171,12 +8167,12 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>36861</v>
       </c>
-      <c r="B161" s="52" t="s">
+      <c r="B161" s="20" t="s">
         <v>268</v>
       </c>
       <c r="C161" s="13">
@@ -8198,7 +8194,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="47" t="s">
         <v>270</v>
       </c>
@@ -8216,11 +8212,11 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>36892</v>
       </c>
-      <c r="B163" s="52" t="s">
+      <c r="B163" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C163" s="13"/>
@@ -8240,9 +8236,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
-      <c r="B164" s="52" t="s">
+      <c r="B164" s="20" t="s">
         <v>268</v>
       </c>
       <c r="C164" s="13"/>
@@ -8262,9 +8258,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
-      <c r="B165" s="52" t="s">
+      <c r="B165" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C165" s="13"/>
@@ -8284,7 +8280,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="50"/>
       <c r="C166" s="13">
@@ -8302,12 +8298,12 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A163,1)</f>
         <v>36923</v>
       </c>
-      <c r="B167" s="52" t="s">
+      <c r="B167" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C167" s="13"/>
@@ -8327,9 +8323,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
-      <c r="B168" s="52" t="s">
+      <c r="B168" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C168" s="13">
@@ -8349,9 +8345,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
-      <c r="B169" s="52" t="s">
+      <c r="B169" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C169" s="13"/>
@@ -8371,12 +8367,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>36951</v>
       </c>
-      <c r="B170" s="52" t="s">
+      <c r="B170" s="20" t="s">
         <v>276</v>
       </c>
       <c r="C170" s="13"/>
@@ -8393,9 +8389,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
-      <c r="B171" s="52" t="s">
+      <c r="B171" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C171" s="13"/>
@@ -8415,9 +8411,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
-      <c r="B172" s="52" t="s">
+      <c r="B172" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C172" s="13"/>
@@ -8435,7 +8431,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="50"/>
       <c r="C173" s="13">
@@ -8453,12 +8449,12 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A170,1)</f>
         <v>36982</v>
       </c>
-      <c r="B174" s="52" t="s">
+      <c r="B174" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C174" s="13"/>
@@ -8478,9 +8474,9 @@
         <v>37168</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
-      <c r="B175" s="52" t="s">
+      <c r="B175" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C175" s="13">
@@ -8502,12 +8498,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>37012</v>
       </c>
-      <c r="B176" s="52" t="s">
+      <c r="B176" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C176" s="13">
@@ -8529,12 +8525,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" ref="A177:A180" si="7">EDATE(A176,1)</f>
         <v>37043</v>
       </c>
-      <c r="B177" s="52" t="s">
+      <c r="B177" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C177" s="13"/>
@@ -8554,7 +8550,7 @@
         <v>36987</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="50"/>
       <c r="C178" s="13">
@@ -8572,7 +8568,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="48"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>37073</v>
@@ -8593,12 +8589,12 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="7"/>
         <v>37104</v>
       </c>
-      <c r="B180" s="52" t="s">
+      <c r="B180" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C180" s="13"/>
@@ -8618,9 +8614,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
-      <c r="B181" s="52"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="13">
         <v>1.25</v>
       </c>
@@ -8636,12 +8632,12 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A180,1)</f>
         <v>37135</v>
       </c>
-      <c r="B182" s="52" t="s">
+      <c r="B182" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C182" s="13"/>
@@ -8661,9 +8657,9 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
-      <c r="B183" s="52" t="s">
+      <c r="B183" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C183" s="13"/>
@@ -8683,9 +8679,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
-      <c r="B184" s="52" t="s">
+      <c r="B184" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C184" s="13"/>
@@ -8705,7 +8701,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="50"/>
       <c r="C185" s="13">
@@ -8723,12 +8719,12 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A182,1)</f>
         <v>37165</v>
       </c>
-      <c r="B186" s="52" t="s">
+      <c r="B186" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C186" s="13"/>
@@ -8748,9 +8744,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
-      <c r="B187" s="52" t="s">
+      <c r="B187" s="20" t="s">
         <v>285</v>
       </c>
       <c r="C187" s="13"/>
@@ -8770,9 +8766,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
-      <c r="B188" s="52" t="s">
+      <c r="B188" s="20" t="s">
         <v>287</v>
       </c>
       <c r="C188" s="13"/>
@@ -8792,9 +8788,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
-      <c r="B189" s="52" t="s">
+      <c r="B189" s="20" t="s">
         <v>289</v>
       </c>
       <c r="C189" s="13">
@@ -8814,12 +8810,12 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A186,1)</f>
         <v>37196</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="B190" s="20" t="s">
         <v>276</v>
       </c>
       <c r="C190" s="13"/>
@@ -8839,9 +8835,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
-      <c r="B191" s="52" t="s">
+      <c r="B191" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C191" s="13"/>
@@ -8861,9 +8857,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
-      <c r="B192" s="52" t="s">
+      <c r="B192" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C192" s="13">
@@ -8883,12 +8879,12 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>37226</v>
       </c>
-      <c r="B193" s="52" t="s">
+      <c r="B193" s="20" t="s">
         <v>293</v>
       </c>
       <c r="C193" s="13">
@@ -8908,7 +8904,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="47" t="s">
         <v>294</v>
       </c>
@@ -8926,11 +8922,11 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37257</v>
       </c>
-      <c r="B195" s="52" t="s">
+      <c r="B195" s="20" t="s">
         <v>295</v>
       </c>
       <c r="C195" s="13">
@@ -8950,12 +8946,12 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>37288</v>
       </c>
-      <c r="B196" s="52" t="s">
+      <c r="B196" s="20" t="s">
         <v>296</v>
       </c>
       <c r="C196" s="13">
@@ -8975,12 +8971,12 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" ref="A197:A215" si="8">EDATE(A196,1)</f>
         <v>37316</v>
       </c>
-      <c r="B197" s="52" t="s">
+      <c r="B197" s="20" t="s">
         <v>297</v>
       </c>
       <c r="C197" s="13">
@@ -9000,12 +8996,12 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="8"/>
         <v>37347</v>
       </c>
-      <c r="B198" s="52" t="s">
+      <c r="B198" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C198" s="13"/>
@@ -9025,9 +9021,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
-      <c r="B199" s="52" t="s">
+      <c r="B199" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C199" s="13"/>
@@ -9045,9 +9041,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
-      <c r="B200" s="52" t="s">
+      <c r="B200" s="20" t="s">
         <v>299</v>
       </c>
       <c r="C200" s="13"/>
@@ -9067,9 +9063,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
-      <c r="B201" s="52" t="s">
+      <c r="B201" s="20" t="s">
         <v>301</v>
       </c>
       <c r="C201" s="13">
@@ -9089,12 +9085,12 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A198,1)</f>
         <v>37377</v>
       </c>
-      <c r="B202" s="52" t="s">
+      <c r="B202" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C202" s="13"/>
@@ -9114,9 +9110,9 @@
         <v>37413</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
-      <c r="B203" s="52" t="s">
+      <c r="B203" s="20" t="s">
         <v>302</v>
       </c>
       <c r="C203" s="13">
@@ -9136,12 +9132,12 @@
       <c r="J203" s="11"/>
       <c r="K203" s="48"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>37408</v>
       </c>
-      <c r="B204" s="52"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="13">
         <v>1.25</v>
       </c>
@@ -9157,12 +9153,12 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="8"/>
         <v>37438</v>
       </c>
-      <c r="B205" s="52" t="s">
+      <c r="B205" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C205" s="13"/>
@@ -9182,9 +9178,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
-      <c r="B206" s="52"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="13">
         <v>1.25</v>
       </c>
@@ -9200,12 +9196,12 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>37469</v>
       </c>
-      <c r="B207" s="52" t="s">
+      <c r="B207" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C207" s="13"/>
@@ -9225,9 +9221,9 @@
         <v>37264</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
-      <c r="B208" s="52" t="s">
+      <c r="B208" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C208" s="13"/>
@@ -9247,9 +9243,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
-      <c r="B209" s="52"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="13">
         <v>1.25</v>
       </c>
@@ -9265,12 +9261,12 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A207,1)</f>
         <v>37500</v>
       </c>
-      <c r="B210" s="52" t="s">
+      <c r="B210" s="20" t="s">
         <v>305</v>
       </c>
       <c r="C210" s="13">
@@ -9290,12 +9286,12 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="8"/>
         <v>37530</v>
       </c>
-      <c r="B211" s="52" t="s">
+      <c r="B211" s="20" t="s">
         <v>276</v>
       </c>
       <c r="C211" s="13"/>
@@ -9315,7 +9311,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -9337,9 +9333,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
-      <c r="B213" s="52"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="13">
         <v>1.25</v>
       </c>
@@ -9355,12 +9351,12 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>37561</v>
       </c>
-      <c r="B214" s="52" t="s">
+      <c r="B214" s="20" t="s">
         <v>308</v>
       </c>
       <c r="C214" s="13">
@@ -9380,12 +9376,12 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="8"/>
         <v>37591</v>
       </c>
-      <c r="B215" s="52" t="s">
+      <c r="B215" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C215" s="13"/>
@@ -9405,7 +9401,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="50"/>
       <c r="C216" s="13">
@@ -9423,7 +9419,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
         <v>309</v>
       </c>
@@ -9441,7 +9437,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>37622</v>
       </c>
@@ -9463,9 +9459,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
-      <c r="B219" s="52" t="s">
+      <c r="B219" s="20" t="s">
         <v>310</v>
       </c>
       <c r="C219" s="13">
@@ -9485,12 +9481,12 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>37653</v>
       </c>
-      <c r="B220" s="52" t="s">
+      <c r="B220" s="20" t="s">
         <v>312</v>
       </c>
       <c r="C220" s="13">
@@ -9510,7 +9506,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" ref="A221:A238" si="9">EDATE(A220,1)</f>
         <v>37681</v>
@@ -9533,9 +9529,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
-      <c r="B222" s="52" t="s">
+      <c r="B222" s="20" t="s">
         <v>313</v>
       </c>
       <c r="C222" s="13">
@@ -9555,12 +9551,12 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A221,1)</f>
         <v>37712</v>
       </c>
-      <c r="B223" s="52" t="s">
+      <c r="B223" s="20" t="s">
         <v>315</v>
       </c>
       <c r="C223" s="13">
@@ -9580,12 +9576,12 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="9"/>
         <v>37742</v>
       </c>
-      <c r="B224" s="52" t="s">
+      <c r="B224" s="20" t="s">
         <v>316</v>
       </c>
       <c r="C224" s="13">
@@ -9605,12 +9601,12 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="9"/>
         <v>37773</v>
       </c>
-      <c r="B225" s="52" t="s">
+      <c r="B225" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C225" s="13"/>
@@ -9627,9 +9623,9 @@
         <v>37808</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
-      <c r="B226" s="52" t="s">
+      <c r="B226" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C226" s="13"/>
@@ -9649,7 +9645,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="50"/>
       <c r="C227" s="13">
@@ -9667,12 +9663,12 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A225,1)</f>
         <v>37803</v>
       </c>
-      <c r="B228" s="52" t="s">
+      <c r="B228" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="13"/>
@@ -9692,7 +9688,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="50"/>
       <c r="C229" s="13">
@@ -9710,7 +9706,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>37834</v>
@@ -9731,12 +9727,12 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="9"/>
         <v>37865</v>
       </c>
-      <c r="B231" s="52" t="s">
+      <c r="B231" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C231" s="13"/>
@@ -9756,9 +9752,9 @@
         <v>37689</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
-      <c r="B232" s="52" t="s">
+      <c r="B232" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C232" s="13"/>
@@ -9778,9 +9774,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
-      <c r="B233" s="52" t="s">
+      <c r="B233" s="20" t="s">
         <v>322</v>
       </c>
       <c r="C233" s="13">
@@ -9800,12 +9796,12 @@
       <c r="J233" s="11"/>
       <c r="K233" s="48"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>37895</v>
       </c>
-      <c r="B234" s="52" t="s">
+      <c r="B234" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C234" s="13"/>
@@ -9825,9 +9821,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
-      <c r="B235" s="52" t="s">
+      <c r="B235" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C235" s="13"/>
@@ -9847,9 +9843,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
-      <c r="B236" s="52" t="s">
+      <c r="B236" s="20" t="s">
         <v>320</v>
       </c>
       <c r="C236" s="13">
@@ -9869,12 +9865,12 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f>EDATE(A234,1)</f>
         <v>37926</v>
       </c>
-      <c r="B237" s="52" t="s">
+      <c r="B237" s="20" t="s">
         <v>323</v>
       </c>
       <c r="C237" s="13">
@@ -9894,12 +9890,12 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="9"/>
         <v>37956</v>
       </c>
-      <c r="B238" s="52" t="s">
+      <c r="B238" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C238" s="13">
@@ -9919,9 +9915,9 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
-      <c r="B239" s="52" t="s">
+      <c r="B239" s="20" t="s">
         <v>325</v>
       </c>
       <c r="C239" s="13"/>
@@ -9939,7 +9935,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="47" t="s">
         <v>326</v>
       </c>
@@ -9957,11 +9953,11 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>37987</v>
       </c>
-      <c r="B241" s="52" t="s">
+      <c r="B241" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C241" s="13"/>
@@ -9981,9 +9977,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
-      <c r="B242" s="52" t="s">
+      <c r="B242" s="20" t="s">
         <v>315</v>
       </c>
       <c r="C242" s="13">
@@ -10003,12 +9999,12 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A241,1)</f>
         <v>38018</v>
       </c>
-      <c r="B243" s="52" t="s">
+      <c r="B243" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C243" s="13"/>
@@ -10025,9 +10021,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
-      <c r="B244" s="52" t="s">
+      <c r="B244" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C244" s="13"/>
@@ -10047,9 +10043,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
-      <c r="B245" s="52" t="s">
+      <c r="B245" s="20" t="s">
         <v>330</v>
       </c>
       <c r="C245" s="13">
@@ -10069,12 +10065,12 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A243,1)</f>
         <v>38047</v>
       </c>
-      <c r="B246" s="52" t="s">
+      <c r="B246" s="20" t="s">
         <v>331</v>
       </c>
       <c r="C246" s="13">
@@ -10094,12 +10090,12 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A255" si="10">EDATE(A246,1)</f>
         <v>38078</v>
       </c>
-      <c r="B247" s="52" t="s">
+      <c r="B247" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C247" s="13"/>
@@ -10119,9 +10115,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
-      <c r="B248" s="52" t="s">
+      <c r="B248" s="20" t="s">
         <v>333</v>
       </c>
       <c r="C248" s="13">
@@ -10141,12 +10137,12 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f>EDATE(A247,1)</f>
         <v>38108</v>
       </c>
-      <c r="B249" s="52" t="s">
+      <c r="B249" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C249" s="13"/>
@@ -10166,7 +10162,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>58</v>
@@ -10186,9 +10182,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
-      <c r="B251" s="52" t="s">
+      <c r="B251" s="20" t="s">
         <v>287</v>
       </c>
       <c r="C251" s="13"/>
@@ -10208,7 +10204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>46</v>
@@ -10230,9 +10226,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
-      <c r="B253" s="52" t="s">
+      <c r="B253" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C253" s="13">
@@ -10252,12 +10248,12 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A249,1)</f>
         <v>38139</v>
       </c>
-      <c r="B254" s="52" t="s">
+      <c r="B254" s="20" t="s">
         <v>335</v>
       </c>
       <c r="C254" s="13">
@@ -10277,12 +10273,12 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="10"/>
         <v>38169</v>
       </c>
-      <c r="B255" s="52" t="s">
+      <c r="B255" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C255" s="13"/>
@@ -10302,9 +10298,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
-      <c r="B256" s="52" t="s">
+      <c r="B256" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C256" s="13"/>
@@ -10324,9 +10320,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
-      <c r="B257" s="52" t="s">
+      <c r="B257" s="20" t="s">
         <v>338</v>
       </c>
       <c r="C257" s="13">
@@ -10346,12 +10342,12 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A255,1)</f>
         <v>38200</v>
       </c>
-      <c r="B258" s="52" t="s">
+      <c r="B258" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C258" s="13"/>
@@ -10364,13 +10360,13 @@
       </c>
       <c r="I258" s="13"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="56" t="s">
+      <c r="K258" s="53" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
-      <c r="B259" s="52" t="s">
+      <c r="B259" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C259" s="13"/>
@@ -10390,9 +10386,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
-      <c r="B260" s="52" t="s">
+      <c r="B260" s="20" t="s">
         <v>340</v>
       </c>
       <c r="C260" s="13">
@@ -10412,12 +10408,12 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A258,1)</f>
         <v>38231</v>
       </c>
-      <c r="B261" s="52" t="s">
+      <c r="B261" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C261" s="13"/>
@@ -10437,9 +10433,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
-      <c r="B262" s="52" t="s">
+      <c r="B262" s="20" t="s">
         <v>323</v>
       </c>
       <c r="C262" s="13">
@@ -10459,12 +10455,12 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>38261</v>
       </c>
-      <c r="B263" s="52" t="s">
+      <c r="B263" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C263" s="13"/>
@@ -10484,9 +10480,9 @@
         <v>38301</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
-      <c r="B264" s="52" t="s">
+      <c r="B264" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C264" s="13"/>
@@ -10506,9 +10502,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
-      <c r="B265" s="52" t="s">
+      <c r="B265" s="20" t="s">
         <v>345</v>
       </c>
       <c r="C265" s="13">
@@ -10528,12 +10524,12 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A263,1)</f>
         <v>38292</v>
       </c>
-      <c r="B266" s="52" t="s">
+      <c r="B266" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C266" s="13"/>
@@ -10553,9 +10549,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
-      <c r="B267" s="52" t="s">
+      <c r="B267" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C267" s="13"/>
@@ -10575,9 +10571,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
-      <c r="B268" s="52" t="s">
+      <c r="B268" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C268" s="13"/>
@@ -10593,13 +10589,13 @@
       </c>
       <c r="I268" s="13"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="57">
+      <c r="K268" s="54">
         <v>38323</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
-      <c r="B269" s="52" t="s">
+      <c r="B269" s="20" t="s">
         <v>348</v>
       </c>
       <c r="C269" s="13">
@@ -10619,7 +10615,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="48"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A266,1)</f>
         <v>38322</v>
@@ -10644,9 +10640,9 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
-      <c r="B271" s="52" t="s">
+      <c r="B271" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C271" s="13"/>
@@ -10666,9 +10662,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
-      <c r="B272" s="52" t="s">
+      <c r="B272" s="20" t="s">
         <v>357</v>
       </c>
       <c r="C272" s="13">
@@ -10688,7 +10684,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="47" t="s">
         <v>359</v>
       </c>
@@ -10706,11 +10702,11 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>38353</v>
       </c>
-      <c r="B274" s="52" t="s">
+      <c r="B274" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C274" s="13"/>
@@ -10730,9 +10726,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
-      <c r="B275" s="52" t="s">
+      <c r="B275" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C275" s="13"/>
@@ -10752,9 +10748,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
-      <c r="B276" s="52" t="s">
+      <c r="B276" s="20" t="s">
         <v>348</v>
       </c>
       <c r="C276" s="13">
@@ -10774,12 +10770,12 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>38384</v>
       </c>
-      <c r="B277" s="52" t="s">
+      <c r="B277" s="20" t="s">
         <v>362</v>
       </c>
       <c r="C277" s="13">
@@ -10799,12 +10795,12 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" ref="A278:A297" si="11">EDATE(A277,1)</f>
         <v>38412</v>
       </c>
-      <c r="B278" s="52" t="s">
+      <c r="B278" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C278" s="13"/>
@@ -10824,9 +10820,9 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
-      <c r="B279" s="52" t="s">
+      <c r="B279" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C279" s="13"/>
@@ -10844,9 +10840,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
-      <c r="B280" s="52" t="s">
+      <c r="B280" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C280" s="13"/>
@@ -10866,9 +10862,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
-      <c r="B281" s="52" t="s">
+      <c r="B281" s="20" t="s">
         <v>365</v>
       </c>
       <c r="C281" s="13">
@@ -10888,12 +10884,12 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A278,1)</f>
         <v>38443</v>
       </c>
-      <c r="B282" s="52" t="s">
+      <c r="B282" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C282" s="13"/>
@@ -10913,9 +10909,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
-      <c r="B283" s="52" t="s">
+      <c r="B283" s="20" t="s">
         <v>367</v>
       </c>
       <c r="C283" s="13">
@@ -10935,12 +10931,12 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>38473</v>
       </c>
-      <c r="B284" s="52" t="s">
+      <c r="B284" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C284" s="13"/>
@@ -10960,9 +10956,9 @@
         <v>38661</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
-      <c r="B285" s="52" t="s">
+      <c r="B285" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C285" s="13"/>
@@ -10982,9 +10978,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
-      <c r="B286" s="52" t="s">
+      <c r="B286" s="20" t="s">
         <v>369</v>
       </c>
       <c r="C286" s="13">
@@ -11004,12 +11000,12 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A284,1)</f>
         <v>38504</v>
       </c>
-      <c r="B287" s="52" t="s">
+      <c r="B287" s="20" t="s">
         <v>369</v>
       </c>
       <c r="C287" s="13">
@@ -11029,12 +11025,12 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f t="shared" si="11"/>
         <v>38534</v>
       </c>
-      <c r="B288" s="52" t="s">
+      <c r="B288" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C288" s="13"/>
@@ -11052,9 +11048,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
-      <c r="B289" s="52" t="s">
+      <c r="B289" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C289" s="13"/>
@@ -11074,9 +11070,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
-      <c r="B290" s="52" t="s">
+      <c r="B290" s="20" t="s">
         <v>370</v>
       </c>
       <c r="C290" s="13">
@@ -11096,7 +11092,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f>EDATE(A288,1)</f>
         <v>38565</v>
@@ -11121,12 +11117,12 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="11"/>
         <v>38596</v>
       </c>
-      <c r="B292" s="52" t="s">
+      <c r="B292" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C292" s="13"/>
@@ -11146,9 +11142,9 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
-      <c r="B293" s="52" t="s">
+      <c r="B293" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C293" s="13"/>
@@ -11168,9 +11164,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
-      <c r="B294" s="52" t="s">
+      <c r="B294" s="20" t="s">
         <v>374</v>
       </c>
       <c r="C294" s="13">
@@ -11190,12 +11186,12 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A292,1)</f>
         <v>38626</v>
       </c>
-      <c r="B295" s="52" t="s">
+      <c r="B295" s="20" t="s">
         <v>376</v>
       </c>
       <c r="C295" s="13">
@@ -11215,12 +11211,12 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="11"/>
         <v>38657</v>
       </c>
-      <c r="B296" s="52" t="s">
+      <c r="B296" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C296" s="13">
@@ -11240,12 +11236,12 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="11"/>
         <v>38687</v>
       </c>
-      <c r="B297" s="52" t="s">
+      <c r="B297" s="20" t="s">
         <v>377</v>
       </c>
       <c r="C297" s="13"/>
@@ -11265,9 +11261,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
-      <c r="B298" s="52" t="s">
+      <c r="B298" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C298" s="13">
@@ -11289,9 +11285,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
-      <c r="B299" s="52" t="s">
+      <c r="B299" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C299" s="13"/>
@@ -11309,11 +11305,11 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="B300" s="52"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
       <c r="E300" s="13"/>
@@ -11327,7 +11323,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>38718</v>
       </c>
@@ -11351,7 +11347,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>382</v>
@@ -11373,7 +11369,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A301,1)</f>
         <v>38749</v>
@@ -11398,7 +11394,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>49</v>
@@ -11420,7 +11416,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>384</v>
@@ -11442,7 +11438,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>38777</v>
@@ -11467,7 +11463,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A318" si="12">EDATE(A306,1)</f>
         <v>38808</v>
@@ -11492,7 +11488,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>124</v>
@@ -11514,7 +11510,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>38838</v>
@@ -11539,7 +11535,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f t="shared" si="12"/>
         <v>38869</v>
@@ -11564,7 +11560,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A310,1)</f>
         <v>38899</v>
@@ -11589,7 +11585,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="12"/>
         <v>38930</v>
@@ -11614,7 +11610,7 @@
         <v>38937</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>52</v>
@@ -11636,7 +11632,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>395</v>
@@ -11658,7 +11654,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>392</v>
@@ -11680,7 +11676,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>38961</v>
@@ -11705,7 +11701,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="12"/>
         <v>38991</v>
@@ -11730,7 +11726,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="12"/>
         <v>39022</v>
@@ -11755,7 +11751,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>399</v>
@@ -11777,7 +11773,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>39052</v>
@@ -11802,9 +11798,9 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
-      <c r="B321" s="52" t="s">
+      <c r="B321" s="20" t="s">
         <v>400</v>
       </c>
       <c r="C321" s="13"/>
@@ -11822,7 +11818,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="47" t="s">
         <v>380</v>
       </c>
@@ -11840,11 +11836,11 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>39083</v>
       </c>
-      <c r="B323" s="52" t="s">
+      <c r="B323" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C323" s="13"/>
@@ -11864,9 +11860,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
-      <c r="B324" s="52" t="s">
+      <c r="B324" s="20" t="s">
         <v>402</v>
       </c>
       <c r="C324" s="13">
@@ -11886,12 +11882,12 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>39114</v>
       </c>
-      <c r="B325" s="52" t="s">
+      <c r="B325" s="20" t="s">
         <v>403</v>
       </c>
       <c r="C325" s="13">
@@ -11911,12 +11907,12 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" ref="A326:A335" si="13">EDATE(A325,1)</f>
         <v>39142</v>
       </c>
-      <c r="B326" s="52" t="s">
+      <c r="B326" s="20" t="s">
         <v>405</v>
       </c>
       <c r="C326" s="13"/>
@@ -11936,9 +11932,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
-      <c r="B327" s="52" t="s">
+      <c r="B327" s="20" t="s">
         <v>404</v>
       </c>
       <c r="C327" s="13">
@@ -11958,12 +11954,12 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>39173</v>
       </c>
-      <c r="B328" s="52" t="s">
+      <c r="B328" s="20" t="s">
         <v>384</v>
       </c>
       <c r="C328" s="13">
@@ -11983,12 +11979,12 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" si="13"/>
         <v>39203</v>
       </c>
-      <c r="B329" s="52" t="s">
+      <c r="B329" s="20" t="s">
         <v>407</v>
       </c>
       <c r="C329" s="13">
@@ -12008,12 +12004,12 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>39234</v>
       </c>
-      <c r="B330" s="52" t="s">
+      <c r="B330" s="20" t="s">
         <v>408</v>
       </c>
       <c r="C330" s="13">
@@ -12033,12 +12029,12 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="13"/>
         <v>39264</v>
       </c>
-      <c r="B331" s="52" t="s">
+      <c r="B331" s="20" t="s">
         <v>409</v>
       </c>
       <c r="C331" s="13">
@@ -12058,12 +12054,12 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="13"/>
         <v>39295</v>
       </c>
-      <c r="B332" s="52" t="s">
+      <c r="B332" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C332" s="13"/>
@@ -12083,9 +12079,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
-      <c r="B333" s="52" t="s">
+      <c r="B333" s="20" t="s">
         <v>411</v>
       </c>
       <c r="C333" s="13">
@@ -12105,12 +12101,12 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f>EDATE(A332,1)</f>
         <v>39326</v>
       </c>
-      <c r="B334" s="52" t="s">
+      <c r="B334" s="20" t="s">
         <v>412</v>
       </c>
       <c r="C334" s="13">
@@ -12130,12 +12126,12 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="13"/>
         <v>39356</v>
       </c>
-      <c r="B335" s="52" t="s">
+      <c r="B335" s="20" t="s">
         <v>357</v>
       </c>
       <c r="C335" s="13">
@@ -12155,12 +12151,12 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f>EDATE(A335,1)</f>
         <v>39387</v>
       </c>
-      <c r="B336" s="52" t="s">
+      <c r="B336" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C336" s="13"/>
@@ -12180,9 +12176,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
-      <c r="B337" s="52" t="s">
+      <c r="B337" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C337" s="13">
@@ -12202,12 +12198,12 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>39417</v>
       </c>
-      <c r="B338" s="52" t="s">
+      <c r="B338" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C338" s="13"/>
@@ -12227,7 +12223,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>313</v>
@@ -12249,7 +12245,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
         <v>417</v>
       </c>
@@ -12267,11 +12263,11 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>39448</v>
       </c>
-      <c r="B341" s="52" t="s">
+      <c r="B341" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C341" s="13"/>
@@ -12291,9 +12287,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
-      <c r="B342" s="52" t="s">
+      <c r="B342" s="20" t="s">
         <v>416</v>
       </c>
       <c r="C342" s="13">
@@ -12313,12 +12309,12 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>39479</v>
       </c>
-      <c r="B343" s="52" t="s">
+      <c r="B343" s="20" t="s">
         <v>419</v>
       </c>
       <c r="C343" s="13">
@@ -12338,12 +12334,12 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" ref="A344:A361" si="14">EDATE(A343,1)</f>
         <v>39508</v>
       </c>
-      <c r="B344" s="52" t="s">
+      <c r="B344" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C344" s="13"/>
@@ -12361,9 +12357,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
-      <c r="B345" s="52" t="s">
+      <c r="B345" s="20" t="s">
         <v>421</v>
       </c>
       <c r="C345" s="13">
@@ -12383,12 +12379,12 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A344,1)</f>
         <v>39539</v>
       </c>
-      <c r="B346" s="52" t="s">
+      <c r="B346" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C346" s="13"/>
@@ -12408,9 +12404,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
-      <c r="B347" s="52" t="s">
+      <c r="B347" s="20" t="s">
         <v>422</v>
       </c>
       <c r="C347" s="13">
@@ -12430,12 +12426,12 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A346,1)</f>
         <v>39569</v>
       </c>
-      <c r="B348" s="52" t="s">
+      <c r="B348" s="20" t="s">
         <v>424</v>
       </c>
       <c r="C348" s="13">
@@ -12455,12 +12451,12 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="14"/>
         <v>39600</v>
       </c>
-      <c r="B349" s="52" t="s">
+      <c r="B349" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C349" s="13"/>
@@ -12480,9 +12476,9 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
-      <c r="B350" s="52" t="s">
+      <c r="B350" s="20" t="s">
         <v>425</v>
       </c>
       <c r="C350" s="13">
@@ -12502,12 +12498,12 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>39630</v>
       </c>
-      <c r="B351" s="52" t="s">
+      <c r="B351" s="20" t="s">
         <v>427</v>
       </c>
       <c r="C351" s="13"/>
@@ -12527,9 +12523,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
-      <c r="B352" s="52" t="s">
+      <c r="B352" s="20" t="s">
         <v>429</v>
       </c>
       <c r="C352" s="13"/>
@@ -12549,9 +12545,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
-      <c r="B353" s="52" t="s">
+      <c r="B353" s="20" t="s">
         <v>431</v>
       </c>
       <c r="C353" s="13"/>
@@ -12571,9 +12567,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
-      <c r="B354" s="52" t="s">
+      <c r="B354" s="20" t="s">
         <v>426</v>
       </c>
       <c r="C354" s="13">
@@ -12593,12 +12589,12 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A351,1)</f>
         <v>39661</v>
       </c>
-      <c r="B355" s="52" t="s">
+      <c r="B355" s="20" t="s">
         <v>433</v>
       </c>
       <c r="C355" s="13">
@@ -12618,12 +12614,12 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="14"/>
         <v>39692</v>
       </c>
-      <c r="B356" s="52" t="s">
+      <c r="B356" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C356" s="13"/>
@@ -12643,9 +12639,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
-      <c r="B357" s="52" t="s">
+      <c r="B357" s="20" t="s">
         <v>434</v>
       </c>
       <c r="C357" s="13">
@@ -12665,12 +12661,12 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>39722</v>
       </c>
-      <c r="B358" s="52" t="s">
+      <c r="B358" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C358" s="13"/>
@@ -12690,9 +12686,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
-      <c r="B359" s="52" t="s">
+      <c r="B359" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C359" s="13">
@@ -12712,12 +12708,12 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>39753</v>
       </c>
-      <c r="B360" s="52" t="s">
+      <c r="B360" s="20" t="s">
         <v>438</v>
       </c>
       <c r="C360" s="13">
@@ -12737,12 +12733,12 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="14"/>
         <v>39783</v>
       </c>
-      <c r="B361" s="52" t="s">
+      <c r="B361" s="20" t="s">
         <v>439</v>
       </c>
       <c r="C361" s="13">
@@ -12762,7 +12758,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="47" t="s">
         <v>440</v>
       </c>
@@ -12780,11 +12776,11 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>39814</v>
       </c>
-      <c r="B363" s="52" t="s">
+      <c r="B363" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C363" s="13"/>
@@ -12802,9 +12798,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
-      <c r="B364" s="52" t="s">
+      <c r="B364" s="20" t="s">
         <v>442</v>
       </c>
       <c r="C364" s="13">
@@ -12824,12 +12820,12 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
       </c>
-      <c r="B365" s="52" t="s">
+      <c r="B365" s="20" t="s">
         <v>443</v>
       </c>
       <c r="C365" s="13">
@@ -12849,7 +12845,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" ref="A366:A381" si="15">EDATE(A365,1)</f>
         <v>39873</v>
@@ -12874,7 +12870,7 @@
         <v>39875</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12896,9 +12892,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
-      <c r="B368" s="52" t="s">
+      <c r="B368" s="20" t="s">
         <v>444</v>
       </c>
       <c r="C368" s="13">
@@ -12918,12 +12914,12 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>39904</v>
       </c>
-      <c r="B369" s="52" t="s">
+      <c r="B369" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C369" s="13"/>
@@ -12943,9 +12939,9 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
-      <c r="B370" s="52" t="s">
+      <c r="B370" s="20" t="s">
         <v>446</v>
       </c>
       <c r="C370" s="13">
@@ -12965,12 +12961,12 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>39934</v>
       </c>
-      <c r="B371" s="52" t="s">
+      <c r="B371" s="20" t="s">
         <v>447</v>
       </c>
       <c r="C371" s="13">
@@ -12990,12 +12986,12 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="15"/>
         <v>39965</v>
       </c>
-      <c r="B372" s="52" t="s">
+      <c r="B372" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C372" s="13"/>
@@ -13015,9 +13011,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
-      <c r="B373" s="52" t="s">
+      <c r="B373" s="20" t="s">
         <v>448</v>
       </c>
       <c r="C373" s="13">
@@ -13037,12 +13033,12 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>39995</v>
       </c>
-      <c r="B374" s="52" t="s">
+      <c r="B374" s="20" t="s">
         <v>395</v>
       </c>
       <c r="C374" s="13"/>
@@ -13062,9 +13058,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
-      <c r="B375" s="52" t="s">
+      <c r="B375" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C375" s="13"/>
@@ -13084,9 +13080,9 @@
         <v>39879</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
-      <c r="B376" s="52" t="s">
+      <c r="B376" s="20" t="s">
         <v>451</v>
       </c>
       <c r="C376" s="13">
@@ -13106,12 +13102,12 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>40026</v>
       </c>
-      <c r="B377" s="52" t="s">
+      <c r="B377" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C377" s="13"/>
@@ -13131,9 +13127,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
-      <c r="B378" s="52" t="s">
+      <c r="B378" s="20" t="s">
         <v>453</v>
       </c>
       <c r="C378" s="13">
@@ -13153,12 +13149,12 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>40057</v>
       </c>
-      <c r="B379" s="52" t="s">
+      <c r="B379" s="20" t="s">
         <v>454</v>
       </c>
       <c r="C379" s="13">
@@ -13178,12 +13174,12 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="15"/>
         <v>40087</v>
       </c>
-      <c r="B380" s="52" t="s">
+      <c r="B380" s="20" t="s">
         <v>455</v>
       </c>
       <c r="C380" s="13">
@@ -13203,12 +13199,12 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="15"/>
         <v>40118</v>
       </c>
-      <c r="B381" s="52" t="s">
+      <c r="B381" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C381" s="13"/>
@@ -13228,9 +13224,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
-      <c r="B382" s="52" t="s">
+      <c r="B382" s="20" t="s">
         <v>457</v>
       </c>
       <c r="C382" s="13">
@@ -13250,12 +13246,12 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>40148</v>
       </c>
-      <c r="B383" s="52" t="s">
+      <c r="B383" s="20" t="s">
         <v>458</v>
       </c>
       <c r="C383" s="13">
@@ -13275,7 +13271,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="47" t="s">
         <v>459</v>
       </c>
@@ -13293,11 +13289,11 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>40179</v>
       </c>
-      <c r="B385" s="52" t="s">
+      <c r="B385" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C385" s="13"/>
@@ -13317,9 +13313,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
-      <c r="B386" s="52" t="s">
+      <c r="B386" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C386" s="13"/>
@@ -13337,9 +13333,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
-      <c r="B387" s="52" t="s">
+      <c r="B387" s="20" t="s">
         <v>462</v>
       </c>
       <c r="C387" s="13">
@@ -13359,12 +13355,12 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f>EDATE(A385,1)</f>
         <v>40210</v>
       </c>
-      <c r="B388" s="52" t="s">
+      <c r="B388" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C388" s="13"/>
@@ -13384,9 +13380,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
-      <c r="B389" s="52" t="s">
+      <c r="B389" s="20" t="s">
         <v>464</v>
       </c>
       <c r="C389" s="13">
@@ -13406,12 +13402,12 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>40238</v>
       </c>
-      <c r="B390" s="52" t="s">
+      <c r="B390" s="20" t="s">
         <v>268</v>
       </c>
       <c r="C390" s="13"/>
@@ -13431,9 +13427,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
-      <c r="B391" s="52" t="s">
+      <c r="B391" s="20" t="s">
         <v>465</v>
       </c>
       <c r="C391" s="13">
@@ -13453,12 +13449,12 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>40269</v>
       </c>
-      <c r="B392" s="52" t="s">
+      <c r="B392" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C392" s="13"/>
@@ -13478,9 +13474,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
-      <c r="B393" s="52" t="s">
+      <c r="B393" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C393" s="13"/>
@@ -13500,9 +13496,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
-      <c r="B394" s="52" t="s">
+      <c r="B394" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C394" s="13"/>
@@ -13518,9 +13514,9 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
-      <c r="B395" s="52" t="s">
+      <c r="B395" s="20" t="s">
         <v>438</v>
       </c>
       <c r="C395" s="13">
@@ -13540,12 +13536,12 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A392,1)</f>
         <v>40299</v>
       </c>
-      <c r="B396" s="52" t="s">
+      <c r="B396" s="20" t="s">
         <v>469</v>
       </c>
       <c r="C396" s="13">
@@ -13565,12 +13561,12 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" ref="A397:A408" si="16">EDATE(A396,1)</f>
         <v>40330</v>
       </c>
-      <c r="B397" s="52" t="s">
+      <c r="B397" s="20" t="s">
         <v>470</v>
       </c>
       <c r="C397" s="13">
@@ -13590,12 +13586,12 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="16"/>
         <v>40360</v>
       </c>
-      <c r="B398" s="52" t="s">
+      <c r="B398" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C398" s="13"/>
@@ -13615,9 +13611,9 @@
         <v>40185</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
-      <c r="B399" s="52" t="s">
+      <c r="B399" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C399" s="13"/>
@@ -13635,9 +13631,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
-      <c r="B400" s="52" t="s">
+      <c r="B400" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C400" s="13">
@@ -13657,12 +13653,12 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A398,1)</f>
         <v>40391</v>
       </c>
-      <c r="B401" s="52" t="s">
+      <c r="B401" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C401" s="13"/>
@@ -13682,9 +13678,9 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
-      <c r="B402" s="52" t="s">
+      <c r="B402" s="20" t="s">
         <v>471</v>
       </c>
       <c r="C402" s="13">
@@ -13704,12 +13700,12 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f>EDATE(A401,1)</f>
         <v>40422</v>
       </c>
-      <c r="B403" s="52" t="s">
+      <c r="B403" s="20" t="s">
         <v>472</v>
       </c>
       <c r="C403" s="13">
@@ -13729,12 +13725,12 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="16"/>
         <v>40452</v>
       </c>
-      <c r="B404" s="52" t="s">
+      <c r="B404" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C404" s="13"/>
@@ -13754,9 +13750,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
-      <c r="B405" s="52" t="s">
+      <c r="B405" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C405" s="13"/>
@@ -13774,9 +13770,9 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
-      <c r="B406" s="52" t="s">
+      <c r="B406" s="20" t="s">
         <v>474</v>
       </c>
       <c r="C406" s="13">
@@ -13796,12 +13792,12 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A404,1)</f>
         <v>40483</v>
       </c>
-      <c r="B407" s="52" t="s">
+      <c r="B407" s="20" t="s">
         <v>475</v>
       </c>
       <c r="C407" s="13">
@@ -13821,12 +13817,12 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="16"/>
         <v>40513</v>
       </c>
-      <c r="B408" s="52" t="s">
+      <c r="B408" s="20" t="s">
         <v>477</v>
       </c>
       <c r="C408" s="13">
@@ -13846,7 +13842,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="47" t="s">
         <v>478</v>
       </c>
@@ -13864,11 +13860,11 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>40544</v>
       </c>
-      <c r="B410" s="52" t="s">
+      <c r="B410" s="20" t="s">
         <v>479</v>
       </c>
       <c r="C410" s="13">
@@ -13888,12 +13884,12 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>40575</v>
       </c>
-      <c r="B411" s="52" t="s">
+      <c r="B411" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C411" s="13"/>
@@ -13913,9 +13909,9 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
-      <c r="B412" s="52" t="s">
+      <c r="B412" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C412" s="13"/>
@@ -13935,9 +13931,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
-      <c r="B413" s="52" t="s">
+      <c r="B413" s="20" t="s">
         <v>481</v>
       </c>
       <c r="C413" s="13">
@@ -13957,12 +13953,12 @@
       <c r="J413" s="11"/>
       <c r="K413" s="48"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A411,1)</f>
         <v>40603</v>
       </c>
-      <c r="B414" s="52" t="s">
+      <c r="B414" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C414" s="13"/>
@@ -13982,9 +13978,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
-      <c r="B415" s="52" t="s">
+      <c r="B415" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C415" s="13"/>
@@ -14002,9 +13998,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
-      <c r="B416" s="52" t="s">
+      <c r="B416" s="20" t="s">
         <v>484</v>
       </c>
       <c r="C416" s="13">
@@ -14024,12 +14020,12 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f>EDATE(A414,1)</f>
         <v>40634</v>
       </c>
-      <c r="B417" s="52" t="s">
+      <c r="B417" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C417" s="13"/>
@@ -14047,9 +14043,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
-      <c r="B418" s="52" t="s">
+      <c r="B418" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C418" s="13"/>
@@ -14069,9 +14065,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
-      <c r="B419" s="52" t="s">
+      <c r="B419" s="20" t="s">
         <v>486</v>
       </c>
       <c r="C419" s="13">
@@ -14091,12 +14087,12 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A417,1)</f>
         <v>40664</v>
       </c>
-      <c r="B420" s="52" t="s">
+      <c r="B420" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C420" s="13"/>
@@ -14116,9 +14112,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
-      <c r="B421" s="52" t="s">
+      <c r="B421" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C421" s="13">
@@ -14138,12 +14134,12 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A420,1)</f>
         <v>40695</v>
       </c>
-      <c r="B422" s="52" t="s">
+      <c r="B422" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C422" s="13"/>
@@ -14163,9 +14159,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
-      <c r="B423" s="52" t="s">
+      <c r="B423" s="20" t="s">
         <v>490</v>
       </c>
       <c r="C423" s="13">
@@ -14185,12 +14181,12 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>40725</v>
       </c>
-      <c r="B424" s="52" t="s">
+      <c r="B424" s="20" t="s">
         <v>491</v>
       </c>
       <c r="C424" s="13">
@@ -14210,12 +14206,12 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" ref="A425:A433" si="17">EDATE(A424,1)</f>
         <v>40756</v>
       </c>
-      <c r="B425" s="52" t="s">
+      <c r="B425" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C425" s="13"/>
@@ -14233,9 +14229,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
-      <c r="B426" s="52" t="s">
+      <c r="B426" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C426" s="13"/>
@@ -14255,9 +14251,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
-      <c r="B427" s="52" t="s">
+      <c r="B427" s="20" t="s">
         <v>494</v>
       </c>
       <c r="C427" s="13">
@@ -14275,12 +14271,12 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A425,1)</f>
         <v>40787</v>
       </c>
-      <c r="B428" s="52" t="s">
+      <c r="B428" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C428" s="13"/>
@@ -14300,9 +14296,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
-      <c r="B429" s="52" t="s">
+      <c r="B429" s="20" t="s">
         <v>495</v>
       </c>
       <c r="C429" s="13">
@@ -14322,12 +14318,12 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A428,1)</f>
         <v>40817</v>
       </c>
-      <c r="B430" s="52" t="s">
+      <c r="B430" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C430" s="13"/>
@@ -14347,9 +14343,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
-      <c r="B431" s="52" t="s">
+      <c r="B431" s="20" t="s">
         <v>497</v>
       </c>
       <c r="C431" s="13">
@@ -14369,12 +14365,12 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>40848</v>
       </c>
-      <c r="B432" s="52" t="s">
+      <c r="B432" s="20" t="s">
         <v>499</v>
       </c>
       <c r="C432" s="13">
@@ -14394,12 +14390,12 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="17"/>
         <v>40878</v>
       </c>
-      <c r="B433" s="52" t="s">
+      <c r="B433" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C433" s="13"/>
@@ -14419,9 +14415,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
-      <c r="B434" s="52" t="s">
+      <c r="B434" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C434" s="13"/>
@@ -14441,9 +14437,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
-      <c r="B435" s="52" t="s">
+      <c r="B435" s="20" t="s">
         <v>502</v>
       </c>
       <c r="C435" s="13">
@@ -14463,7 +14459,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="47" t="s">
         <v>503</v>
       </c>
@@ -14481,11 +14477,11 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>40909</v>
       </c>
-      <c r="B437" s="52" t="s">
+      <c r="B437" s="20" t="s">
         <v>504</v>
       </c>
       <c r="C437" s="13">
@@ -14505,12 +14501,12 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f>EDATE(A437,1)</f>
         <v>40940</v>
       </c>
-      <c r="B438" s="52" t="s">
+      <c r="B438" s="20" t="s">
         <v>505</v>
       </c>
       <c r="C438" s="13">
@@ -14530,12 +14526,12 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f t="shared" ref="A439:A455" si="18">EDATE(A438,1)</f>
         <v>40969</v>
       </c>
-      <c r="B439" s="52" t="s">
+      <c r="B439" s="20" t="s">
         <v>506</v>
       </c>
       <c r="C439" s="13"/>
@@ -14553,9 +14549,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
-      <c r="B440" s="52" t="s">
+      <c r="B440" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C440" s="13"/>
@@ -14573,9 +14569,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
-      <c r="B441" s="52" t="s">
+      <c r="B441" s="20" t="s">
         <v>509</v>
       </c>
       <c r="C441" s="13">
@@ -14595,12 +14591,12 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>41000</v>
       </c>
-      <c r="B442" s="52" t="s">
+      <c r="B442" s="20" t="s">
         <v>510</v>
       </c>
       <c r="C442" s="13">
@@ -14620,12 +14616,12 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="18"/>
         <v>41030</v>
       </c>
-      <c r="B443" s="52" t="s">
+      <c r="B443" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C443" s="13"/>
@@ -14643,9 +14639,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
-      <c r="B444" s="52" t="s">
+      <c r="B444" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C444" s="13"/>
@@ -14665,9 +14661,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
-      <c r="B445" s="52" t="s">
+      <c r="B445" s="20" t="s">
         <v>513</v>
       </c>
       <c r="C445" s="13">
@@ -14687,12 +14683,12 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A443,1)</f>
         <v>41061</v>
       </c>
-      <c r="B446" s="52" t="s">
+      <c r="B446" s="20" t="s">
         <v>514</v>
       </c>
       <c r="C446" s="13">
@@ -14712,12 +14708,12 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="18"/>
         <v>41091</v>
       </c>
-      <c r="B447" s="52" t="s">
+      <c r="B447" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C447" s="13"/>
@@ -14737,9 +14733,9 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
-      <c r="B448" s="52" t="s">
+      <c r="B448" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C448" s="13"/>
@@ -14759,9 +14755,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
-      <c r="B449" s="52" t="s">
+      <c r="B449" s="20" t="s">
         <v>516</v>
       </c>
       <c r="C449" s="13">
@@ -14781,12 +14777,12 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41122</v>
       </c>
-      <c r="B450" s="52" t="s">
+      <c r="B450" s="20" t="s">
         <v>517</v>
       </c>
       <c r="C450" s="13"/>
@@ -14806,9 +14802,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
-      <c r="B451" s="52" t="s">
+      <c r="B451" s="20" t="s">
         <v>519</v>
       </c>
       <c r="C451" s="13">
@@ -14828,12 +14824,12 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f>EDATE(A450,1)</f>
         <v>41153</v>
       </c>
-      <c r="B452" s="52" t="s">
+      <c r="B452" s="20" t="s">
         <v>520</v>
       </c>
       <c r="C452" s="13">
@@ -14853,12 +14849,12 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f t="shared" si="18"/>
         <v>41183</v>
       </c>
-      <c r="B453" s="52" t="s">
+      <c r="B453" s="20" t="s">
         <v>522</v>
       </c>
       <c r="C453" s="13">
@@ -14878,12 +14874,12 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="18"/>
         <v>41214</v>
       </c>
-      <c r="B454" s="52" t="s">
+      <c r="B454" s="20" t="s">
         <v>521</v>
       </c>
       <c r="C454" s="13">
@@ -14903,12 +14899,12 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="18"/>
         <v>41244</v>
       </c>
-      <c r="B455" s="52" t="s">
+      <c r="B455" s="20" t="s">
         <v>523</v>
       </c>
       <c r="C455" s="13">
@@ -14928,7 +14924,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="47" t="s">
         <v>524</v>
       </c>
@@ -14946,11 +14942,11 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41275</v>
       </c>
-      <c r="B457" s="52" t="s">
+      <c r="B457" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C457" s="13"/>
@@ -14968,9 +14964,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
-      <c r="B458" s="52" t="s">
+      <c r="B458" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C458" s="13"/>
@@ -14988,9 +14984,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
-      <c r="B459" s="52" t="s">
+      <c r="B459" s="20" t="s">
         <v>527</v>
       </c>
       <c r="C459" s="13">
@@ -15010,12 +15006,12 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f>EDATE(A457,1)</f>
         <v>41306</v>
       </c>
-      <c r="B460" s="52" t="s">
+      <c r="B460" s="20" t="s">
         <v>528</v>
       </c>
       <c r="C460" s="13">
@@ -15035,12 +15031,12 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f t="shared" ref="A461:A475" si="19">EDATE(A460,1)</f>
         <v>41334</v>
       </c>
-      <c r="B461" s="52"/>
+      <c r="B461" s="20"/>
       <c r="C461" s="13">
         <v>1.25</v>
       </c>
@@ -15056,12 +15052,12 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="19"/>
         <v>41365</v>
       </c>
-      <c r="B462" s="52" t="s">
+      <c r="B462" s="20" t="s">
         <v>490</v>
       </c>
       <c r="C462" s="13">
@@ -15081,12 +15077,12 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="19"/>
         <v>41395</v>
       </c>
-      <c r="B463" s="52" t="s">
+      <c r="B463" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C463" s="13"/>
@@ -15106,9 +15102,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
-      <c r="B464" s="52" t="s">
+      <c r="B464" s="20" t="s">
         <v>530</v>
       </c>
       <c r="C464" s="13">
@@ -15128,12 +15124,12 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A463,1)</f>
         <v>41426</v>
       </c>
-      <c r="B465" s="52" t="s">
+      <c r="B465" s="20" t="s">
         <v>531</v>
       </c>
       <c r="C465" s="13">
@@ -15153,12 +15149,12 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" si="19"/>
         <v>41456</v>
       </c>
-      <c r="B466" s="52" t="s">
+      <c r="B466" s="20" t="s">
         <v>532</v>
       </c>
       <c r="C466" s="13">
@@ -15178,9 +15174,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
-      <c r="B467" s="52" t="s">
+      <c r="B467" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C467" s="13"/>
@@ -15196,11 +15192,11 @@
       </c>
       <c r="I467" s="13"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="62"/>
-    </row>
-    <row r="468" spans="1:11">
+      <c r="K467" s="55"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
-      <c r="B468" s="52" t="s">
+      <c r="B468" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C468" s="13"/>
@@ -15218,12 +15214,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f>EDATE(A466,1)</f>
         <v>41487</v>
       </c>
-      <c r="B469" s="52" t="s">
+      <c r="B469" s="20" t="s">
         <v>534</v>
       </c>
       <c r="C469" s="13">
@@ -15243,12 +15239,12 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="19"/>
         <v>41518</v>
       </c>
-      <c r="B470" s="52" t="s">
+      <c r="B470" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C470" s="13"/>
@@ -15268,9 +15264,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
-      <c r="B471" s="52" t="s">
+      <c r="B471" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C471" s="13"/>
@@ -15290,9 +15286,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
-      <c r="B472" s="52" t="s">
+      <c r="B472" s="20" t="s">
         <v>537</v>
       </c>
       <c r="C472" s="13">
@@ -15312,12 +15308,12 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A470,1)</f>
         <v>41548</v>
       </c>
-      <c r="B473" s="52" t="s">
+      <c r="B473" s="20" t="s">
         <v>538</v>
       </c>
       <c r="C473" s="13">
@@ -15337,12 +15333,12 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="19"/>
         <v>41579</v>
       </c>
-      <c r="B474" s="52" t="s">
+      <c r="B474" s="20" t="s">
         <v>539</v>
       </c>
       <c r="C474" s="13">
@@ -15362,12 +15358,12 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="19"/>
         <v>41609</v>
       </c>
-      <c r="B475" s="52" t="s">
+      <c r="B475" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C475" s="13">
@@ -15387,7 +15383,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="47" t="s">
         <v>42</v>
       </c>
@@ -15409,52 +15405,52 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11">
-      <c r="A477" s="51">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="23">
         <v>41640</v>
       </c>
       <c r="B477" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C477" s="13"/>
-      <c r="D477" s="59"/>
-      <c r="E477" s="60"/>
-      <c r="F477" s="52"/>
-      <c r="G477" s="58" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H477" s="59"/>
-      <c r="I477" s="60"/>
-      <c r="J477" s="61"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="34"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="9" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39"/>
+      <c r="I477" s="34"/>
+      <c r="J477" s="11"/>
       <c r="K477" s="20" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
-      <c r="A478" s="51"/>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>540</v>
       </c>
       <c r="C478" s="13">
         <v>1.25</v>
       </c>
-      <c r="D478" s="59">
+      <c r="D478" s="39">
         <v>1.55</v>
       </c>
-      <c r="E478" s="60"/>
-      <c r="F478" s="52"/>
+      <c r="E478" s="34"/>
+      <c r="F478" s="20"/>
       <c r="G478" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H478" s="59"/>
-      <c r="I478" s="60"/>
-      <c r="J478" s="61"/>
-      <c r="K478" s="52"/>
-    </row>
-    <row r="479" spans="1:11">
-      <c r="A479" s="51">
+      <c r="H478" s="39"/>
+      <c r="I478" s="34"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="23">
         <v>41671</v>
       </c>
       <c r="B479" s="20" t="s">
@@ -15477,8 +15473,8 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11">
-      <c r="A480" s="51">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="23">
         <v>41699</v>
       </c>
       <c r="B480" s="20" t="s">
@@ -15501,7 +15497,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41730</v>
       </c>
@@ -15525,7 +15521,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A481,1)</f>
         <v>41760</v>
@@ -15550,7 +15546,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" ref="A483:A492" si="20">EDATE(A482,1)</f>
         <v>41791</v>
@@ -15575,7 +15571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>46</v>
@@ -15597,7 +15593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>47</v>
@@ -15619,7 +15615,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f>EDATE(A483,1)</f>
         <v>41821</v>
@@ -15644,7 +15640,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f t="shared" si="20"/>
         <v>41852</v>
@@ -15671,7 +15667,7 @@
         <v>41859</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>52</v>
@@ -15693,7 +15689,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>54</v>
@@ -15715,7 +15711,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="48"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f>EDATE(A487,1)</f>
         <v>41883</v>
@@ -15740,7 +15736,7 @@
       <c r="J490" s="12"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A490,1)</f>
         <v>41913</v>
@@ -15765,7 +15761,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f t="shared" si="20"/>
         <v>41944</v>
@@ -15790,7 +15786,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A492,1)</f>
         <v>41974</v>
@@ -15815,7 +15811,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="47" t="s">
         <v>41</v>
       </c>
@@ -15833,7 +15829,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42005</v>
       </c>
@@ -15855,7 +15851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>59</v>
@@ -15877,7 +15873,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A495,1)</f>
         <v>42036</v>
@@ -15902,7 +15898,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A497,1)</f>
         <v>42064</v>
@@ -15927,7 +15923,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A498,1)</f>
         <v>42095</v>
@@ -15952,7 +15948,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A499,1)</f>
         <v>42125</v>
@@ -15977,7 +15973,7 @@
         <v>42160</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>65</v>
@@ -15999,7 +15995,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="48"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f>EDATE(A500,1)</f>
         <v>42156</v>
@@ -16024,7 +16020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>63</v>
@@ -16046,7 +16042,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f>EDATE(A502,1)</f>
         <v>42186</v>
@@ -16071,7 +16067,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>67</v>
@@ -16093,7 +16089,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="48"/>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <f>EDATE(A504,1)</f>
         <v>42217</v>
@@ -16118,7 +16114,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A506,1)</f>
         <v>42248</v>
@@ -16143,7 +16139,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>42278</v>
@@ -16168,7 +16164,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>49</v>
@@ -16190,7 +16186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>70</v>
@@ -16209,7 +16205,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="48"/>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f>EDATE(A508,1)</f>
         <v>42309</v>
@@ -16232,7 +16228,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f>EDATE(A511,1)</f>
         <v>42339</v>
@@ -16257,7 +16253,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="47" t="s">
         <v>73</v>
       </c>
@@ -16275,7 +16271,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>42370</v>
       </c>
@@ -16299,7 +16295,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>49</v>
@@ -16321,7 +16317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f>EDATE(A514,1)</f>
         <v>42401</v>
@@ -16346,7 +16342,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f>EDATE(A516,1)</f>
         <v>42430</v>
@@ -16371,7 +16367,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A517,1)</f>
         <v>42461</v>
@@ -16396,7 +16392,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>170</v>
@@ -16418,7 +16414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>42491</v>
@@ -16443,7 +16439,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="49" t="s">
         <v>46</v>
@@ -16465,7 +16461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>42522</v>
@@ -16490,7 +16486,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f>EDATE(A522,1)</f>
         <v>42552</v>
@@ -16515,7 +16511,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A523,1)</f>
         <v>42583</v>
@@ -16540,7 +16536,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>88</v>
@@ -16562,7 +16558,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>42614</v>
@@ -16587,7 +16583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>91</v>
@@ -16609,7 +16605,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <f>EDATE(A526,1)</f>
         <v>42644</v>
@@ -16638,7 +16634,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>49</v>
@@ -16656,7 +16652,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f>EDATE(A528,1)</f>
         <v>42675</v>
@@ -16681,7 +16677,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f>EDATE(A530,1)</f>
         <v>42705</v>
@@ -16708,7 +16704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23"/>
       <c r="B532" s="20" t="s">
         <v>97</v>
@@ -16728,7 +16724,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="47" t="s">
         <v>96</v>
       </c>
@@ -16746,7 +16742,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>42736</v>
       </c>
@@ -16770,7 +16766,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>99</v>
@@ -16792,7 +16788,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f>EDATE(A534,1)</f>
         <v>42767</v>
@@ -16817,7 +16813,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A546" si="21">EDATE(A536,1)</f>
         <v>42795</v>
@@ -16842,7 +16838,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <f t="shared" si="21"/>
         <v>42826</v>
@@ -16867,7 +16863,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f t="shared" si="21"/>
         <v>42856</v>
@@ -16892,7 +16888,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f t="shared" si="21"/>
         <v>42887</v>
@@ -16917,7 +16913,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f t="shared" si="21"/>
         <v>42917</v>
@@ -16942,7 +16938,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" si="21"/>
         <v>42948</v>
@@ -16967,7 +16963,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>106</v>
@@ -16989,7 +16985,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="48"/>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f>EDATE(A542,1)</f>
         <v>42979</v>
@@ -17014,7 +17010,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f t="shared" si="21"/>
         <v>43009</v>
@@ -17039,7 +17035,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43040</v>
@@ -17064,7 +17060,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>49</v>
@@ -17086,7 +17082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13">
@@ -17104,7 +17100,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f>EDATE(A546,1)</f>
         <v>43070</v>
@@ -17125,7 +17121,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="47" t="s">
         <v>113</v>
       </c>
@@ -17143,7 +17139,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43101</v>
       </c>
@@ -17163,7 +17159,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f>EDATE(A551,1)</f>
         <v>43132</v>
@@ -17184,7 +17180,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f t="shared" ref="A553:A567" si="22">EDATE(A552,1)</f>
         <v>43160</v>
@@ -17205,7 +17201,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f t="shared" si="22"/>
         <v>43191</v>
@@ -17226,7 +17222,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="22"/>
         <v>43221</v>
@@ -17248,7 +17244,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>110</v>
@@ -17270,7 +17266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -17288,7 +17284,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43252</v>
@@ -17309,7 +17305,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f t="shared" si="22"/>
         <v>43282</v>
@@ -17330,7 +17326,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="22"/>
         <v>43313</v>
@@ -17353,7 +17349,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>89</v>
@@ -17375,7 +17371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13">
@@ -17393,7 +17389,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f>EDATE(A560,1)</f>
         <v>43344</v>
@@ -17414,7 +17410,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f t="shared" si="22"/>
         <v>43374</v>
@@ -17439,7 +17435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -17457,7 +17453,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f>EDATE(A564,1)</f>
         <v>43405</v>
@@ -17478,7 +17474,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" si="22"/>
         <v>43435</v>
@@ -17499,7 +17495,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="47" t="s">
         <v>119</v>
       </c>
@@ -17517,7 +17513,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>43466</v>
       </c>
@@ -17536,7 +17532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13">
@@ -17554,7 +17550,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>43497</v>
       </c>
@@ -17574,7 +17570,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f t="shared" ref="A572:A584" si="23">EDATE(A571,1)</f>
         <v>43525</v>
@@ -17596,7 +17592,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13">
@@ -17614,7 +17610,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <f>EDATE(A572,1)</f>
         <v>43556</v>
@@ -17635,7 +17631,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <f t="shared" si="23"/>
         <v>43586</v>
@@ -17656,7 +17652,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f t="shared" si="23"/>
         <v>43617</v>
@@ -17677,7 +17673,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <f t="shared" si="23"/>
         <v>43647</v>
@@ -17700,7 +17696,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>124</v>
@@ -17722,7 +17718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -17740,7 +17736,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <f>EDATE(A577,1)</f>
         <v>43678</v>
@@ -17760,7 +17756,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13">
@@ -17778,7 +17774,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f>EDATE(A580,1)</f>
         <v>43709</v>
@@ -17799,7 +17795,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <f t="shared" si="23"/>
         <v>43739</v>
@@ -17820,7 +17816,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f t="shared" si="23"/>
         <v>43770</v>
@@ -17845,7 +17841,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13">
@@ -17863,7 +17859,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <f>EDATE(A584,1)</f>
         <v>43800</v>
@@ -17888,7 +17884,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13">
@@ -17903,7 +17899,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="47" t="s">
         <v>545</v>
       </c>
@@ -17921,7 +17917,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>43831</v>
       </c>
@@ -17945,7 +17941,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>546</v>
@@ -17965,7 +17961,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13">
@@ -17983,7 +17979,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <f>EDATE(A589,1)</f>
         <v>43862</v>
@@ -18004,7 +18000,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f t="shared" ref="A593:A603" si="24">EDATE(A592,1)</f>
         <v>43891</v>
@@ -18025,7 +18021,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="24"/>
         <v>43922</v>
@@ -18046,7 +18042,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <f t="shared" si="24"/>
         <v>43952</v>
@@ -18067,7 +18063,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f t="shared" si="24"/>
         <v>43983</v>
@@ -18088,7 +18084,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f t="shared" si="24"/>
         <v>44013</v>
@@ -18113,7 +18109,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -18131,7 +18127,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44044</v>
@@ -18152,7 +18148,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="24"/>
         <v>44075</v>
@@ -18173,7 +18169,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <f t="shared" si="24"/>
         <v>44105</v>
@@ -18194,7 +18190,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f t="shared" si="24"/>
         <v>44136</v>
@@ -18215,7 +18211,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <f t="shared" si="24"/>
         <v>44166</v>
@@ -18240,7 +18236,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="47" t="s">
         <v>550</v>
       </c>
@@ -18258,7 +18254,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44197</v>
       </c>
@@ -18282,7 +18278,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>58</v>
@@ -18302,7 +18298,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -18320,7 +18316,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A605,1)</f>
         <v>44228</v>
@@ -18343,7 +18339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>58</v>
@@ -18363,7 +18359,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13">
@@ -18381,7 +18377,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <f>EDATE(A608,1)</f>
         <v>44256</v>
@@ -18402,7 +18398,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <f t="shared" ref="A612:A617" si="25">EDATE(A611,1)</f>
         <v>44287</v>
@@ -18423,7 +18419,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f t="shared" si="25"/>
         <v>44317</v>
@@ -18444,7 +18440,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" si="25"/>
         <v>44348</v>
@@ -18465,7 +18461,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f t="shared" si="25"/>
         <v>44378</v>
@@ -18486,7 +18482,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="25"/>
         <v>44409</v>
@@ -18507,7 +18503,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f t="shared" si="25"/>
         <v>44440</v>
@@ -18528,12 +18524,12 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <f>EDATE(A617,1)</f>
         <v>44470</v>
       </c>
-      <c r="B618" s="63" t="s">
+      <c r="B618" s="56" t="s">
         <v>564</v>
       </c>
       <c r="C618" s="13"/>
@@ -18551,7 +18547,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -18569,7 +18565,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f>EDATE(A618,1)</f>
         <v>44501</v>
@@ -18594,7 +18590,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>117</v>
@@ -18616,7 +18612,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13">
@@ -18634,7 +18630,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f>EDATE(A620,1)</f>
         <v>44531</v>
@@ -18655,7 +18651,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="47" t="s">
         <v>558</v>
       </c>
@@ -18673,7 +18669,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>44562</v>
       </c>
@@ -18695,7 +18691,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13">
@@ -18713,7 +18709,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f>EDATE(A625,1)</f>
         <v>44593</v>
@@ -18734,7 +18730,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <f t="shared" ref="A628:A632" si="26">EDATE(A627,1)</f>
         <v>44621</v>
@@ -18755,7 +18751,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <f t="shared" si="26"/>
         <v>44652</v>
@@ -18780,7 +18776,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13">
@@ -18798,7 +18794,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <f>EDATE(A629,1)</f>
         <v>44682</v>
@@ -18819,7 +18815,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f t="shared" si="26"/>
         <v>44713</v>
@@ -18840,7 +18836,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <f>EDATE(A632,1)</f>
         <v>44743</v>
@@ -18865,7 +18861,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>58</v>
@@ -18885,7 +18881,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>117</v>
@@ -18907,7 +18903,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13">
@@ -18925,136 +18921,174 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11">
-      <c r="A637" s="40"/>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A637" s="40">
+        <v>44774</v>
+      </c>
       <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G637" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11">
-      <c r="A638" s="40"/>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A638" s="40">
+        <v>44805</v>
+      </c>
       <c r="B638" s="20"/>
-      <c r="C638" s="13"/>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11">
-      <c r="A639" s="40"/>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A639" s="40">
+        <v>44835</v>
+      </c>
       <c r="B639" s="20"/>
-      <c r="C639" s="13"/>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11">
-      <c r="A640" s="40"/>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A640" s="40">
+        <v>44866</v>
+      </c>
       <c r="B640" s="15"/>
-      <c r="C640" s="41"/>
+      <c r="C640" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D640" s="42"/>
       <c r="E640" s="9"/>
       <c r="F640" s="15"/>
-      <c r="G640" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G640" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H640" s="42"/>
       <c r="I640" s="9"/>
       <c r="J640" s="12"/>
       <c r="K640" s="15"/>
     </row>
-    <row r="641" spans="1:11">
-      <c r="A641" s="40"/>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A641" s="40">
+        <v>44896</v>
+      </c>
       <c r="B641" s="20"/>
-      <c r="C641" s="13"/>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D641" s="39"/>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11">
-      <c r="A642" s="40"/>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A642" s="47" t="s">
+        <v>565</v>
+      </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="39"/>
-      <c r="E642" s="9"/>
+      <c r="E642" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>3.7809999999998922</v>
+      </c>
       <c r="F642" s="20"/>
       <c r="G642" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H642" s="39"/>
-      <c r="I642" s="9"/>
+      <c r="I642" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>174.20799999999997</v>
+      </c>
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11">
-      <c r="A643" s="40"/>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A643" s="40">
+        <v>44927</v>
+      </c>
       <c r="B643" s="20"/>
-      <c r="C643" s="13"/>
+      <c r="C643" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D643" s="39"/>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G643" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11">
-      <c r="A644" s="40"/>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A644" s="40">
+        <v>44958</v>
+      </c>
       <c r="B644" s="20"/>
-      <c r="C644" s="13"/>
+      <c r="C644" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D644" s="39"/>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G644" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11">
-      <c r="A645" s="40"/>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A645" s="40">
+        <v>44986</v>
+      </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
       <c r="D645" s="39"/>
@@ -19069,8 +19103,10 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11">
-      <c r="A646" s="40"/>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646" s="40">
+        <v>45017</v>
+      </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
       <c r="D646" s="39"/>
@@ -19085,8 +19121,10 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11">
-      <c r="A647" s="40"/>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="40">
+        <v>45047</v>
+      </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
       <c r="D647" s="39"/>
@@ -19100,6 +19138,24 @@
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A648" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="39"/>
+      <c r="E648" s="9"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="39"/>
+      <c r="I648" s="9"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19116,10 +19172,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19142,7 +19198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19150,7 +19206,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -19164,20 +19220,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="74" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="J1" s="75" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19206,7 +19262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -19234,17 +19290,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>27</v>
       </c>
@@ -19258,14 +19314,14 @@
         <v>29</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19292,7 +19348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19318,7 +19374,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19344,7 +19400,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19370,7 +19426,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19396,7 +19452,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19422,7 +19478,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19448,7 +19504,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19474,7 +19530,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19494,7 +19550,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19514,7 +19570,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19534,7 +19590,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19555,7 +19611,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19576,7 +19632,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19597,7 +19653,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19618,7 +19674,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19639,7 +19695,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19660,7 +19716,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19681,7 +19737,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19702,7 +19758,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19723,7 +19779,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19744,7 +19800,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19765,7 +19821,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19786,7 +19842,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19807,7 +19863,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19828,7 +19884,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19849,7 +19905,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19870,7 +19926,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19891,7 +19947,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19912,7 +19968,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19933,7 +19989,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19954,7 +20010,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19963,7 +20019,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19972,7 +20028,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19981,7 +20037,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19990,7 +20046,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19999,7 +20055,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20008,7 +20064,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20017,7 +20073,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20026,7 +20082,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20035,7 +20091,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20044,7 +20100,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20053,7 +20109,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20062,7 +20118,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20071,7 +20127,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20080,7 +20136,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20089,7 +20145,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20098,7 +20154,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20107,7 +20163,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20116,7 +20172,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20125,7 +20181,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20134,7 +20190,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20143,7 +20199,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20152,7 +20208,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20161,7 +20217,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20170,7 +20226,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20179,7 +20235,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20188,7 +20244,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20197,7 +20253,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20206,7 +20262,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20215,7 +20271,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
